--- a/users_data.xlsx
+++ b/users_data.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarok\Desktop\9no Semestre\Pruebas de SW\tarea-1\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarok\Desktop\9no Semestre\Pruebas de SW\tarea-1 - copia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D848F38B-749E-4447-87D1-8A2E06FE3D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08641173-191A-4DE1-BB1A-813FD339D4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Andreas" sheetId="2" r:id="rId2"/>
+    <sheet name="Neck" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,15 +27,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>USERNAMES</t>
-  </si>
-  <si>
-    <t>SHEETS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ANSWER</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Noruega</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>SHEET</t>
+  </si>
+  <si>
+    <t>Palabra clave</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>jejeje</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>Chile</t>
   </si>
 </sst>
 </file>
@@ -89,12 +115,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A24F3D41-52EE-4B31-B8EF-A6A9FB43A718}" name="Tabla1" displayName="Tabla1" ref="A1:C2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{A24F3D41-52EE-4B31-B8EF-A6A9FB43A718}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A24F3D41-52EE-4B31-B8EF-A6A9FB43A718}" name="Tabla1" displayName="Tabla1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{A24F3D41-52EE-4B31-B8EF-A6A9FB43A718}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FDE177C6-393E-4B18-8070-BC8B40E93448}" name="USERNAMES"/>
+    <tableColumn id="1" xr3:uid="{FDE177C6-393E-4B18-8070-BC8B40E93448}" name="USERNAME"/>
     <tableColumn id="2" xr3:uid="{F183BAC3-1A69-4511-8159-518A7A11ED06}" name="ANSWER"/>
-    <tableColumn id="3" xr3:uid="{798557DC-E0A5-472F-A942-DD337E12E5E6}" name="SHEETS"/>
+    <tableColumn id="3" xr3:uid="{798557DC-E0A5-472F-A942-DD337E12E5E6}" name="SHEET"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -363,11 +389,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,13 +405,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -394,4 +442,50 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB15C6F3-2CC8-4EB4-83D6-DF5A5F2DFF2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D5AC1B-FB18-4F07-9379-39AA716AB4F2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>